--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf5-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf5-Fgfr3.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H2">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>0.9760985363879999</v>
+        <v>0.8206224791043335</v>
       </c>
       <c r="R2">
-        <v>8.784886827491999</v>
+        <v>7.385602311939002</v>
       </c>
       <c r="S2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="T2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H3">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>0.10394908609</v>
+        <v>0.09264100005666669</v>
       </c>
       <c r="R3">
-        <v>0.9355417748099999</v>
+        <v>0.8337690005100001</v>
       </c>
       <c r="S3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="T3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H4">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>0.057140543476</v>
+        <v>0.092297781335</v>
       </c>
       <c r="R4">
-        <v>0.514264891284</v>
+        <v>0.8306800320150001</v>
       </c>
       <c r="S4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="T4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
     </row>
   </sheetData>
